--- a/Database/SQL.xlsx
+++ b/Database/SQL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IIITL\Code Files\Development\Data Science\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IIITL\Code Files\Data Science\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F8BEF9C-3C7A-45A1-9F7A-30028A20272B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A76DE27-76B2-439F-954E-1E85D1CD3D1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Basics 1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="174">
   <si>
     <t>show databases</t>
   </si>
@@ -72,9 +72,6 @@
     <t>left join</t>
   </si>
   <si>
-    <t>full join</t>
-  </si>
-  <si>
     <t>count of entries of column c of table t</t>
   </si>
   <si>
@@ -189,18 +186,7 @@
     <t>all of t1 and matched of t2</t>
   </si>
   <si>
-    <t>matched entries of tables t1 and t2
-together in one table</t>
-  </si>
-  <si>
     <t>union all</t>
-  </si>
-  <si>
-    <t>merge entries</t>
-  </si>
-  <si>
-    <t>distinct merged entries of table t1 and t2
-together in one table</t>
   </si>
   <si>
     <t>exists (q)</t>
@@ -519,6 +505,99 @@
   <si>
     <t>change view v
 according to the query</t>
+  </si>
+  <si>
+    <t>full outer join</t>
+  </si>
+  <si>
+    <t>select c1, c2, … from t1, t2, …</t>
+  </si>
+  <si>
+    <t>cartesian product of c1, c2, …</t>
+  </si>
+  <si>
+    <t>select t1.c2, t2.c2, ... from t1
+cross join t2</t>
+  </si>
+  <si>
+    <t>intersect</t>
+  </si>
+  <si>
+    <t>minus</t>
+  </si>
+  <si>
+    <t>combined entries</t>
+  </si>
+  <si>
+    <t>common entries</t>
+  </si>
+  <si>
+    <t>entries of t1 which are not present in t2</t>
+  </si>
+  <si>
+    <t>rename table t1 to t2</t>
+  </si>
+  <si>
+    <t>alter table t1 rename to t2</t>
+  </si>
+  <si>
+    <t>rename c1 to c2</t>
+  </si>
+  <si>
+    <t>rename column c1 to c2</t>
+  </si>
+  <si>
+    <t>truncate table t</t>
+  </si>
+  <si>
+    <t>remove all data from table t</t>
+  </si>
+  <si>
+    <t>create recursive view v as
+select c1, c2, ... from t1
+union select c1, c2, ... from t2</t>
+  </si>
+  <si>
+    <t>temporary view v</t>
+  </si>
+  <si>
+    <t>recursive view v with first query as anchor part and second query as recursive part</t>
+  </si>
+  <si>
+    <t>on update set null</t>
+  </si>
+  <si>
+    <t>on delete cascade</t>
+  </si>
+  <si>
+    <t>on delete set null</t>
+  </si>
+  <si>
+    <t>on updating entries of c2,
+update entries of c1</t>
+  </si>
+  <si>
+    <t>on deleting entries of c2,
+delete entries of c1</t>
+  </si>
+  <si>
+    <t>foreign key (c1)
+references t2 (c2))
+on update cascade</t>
+  </si>
+  <si>
+    <t>on updating entries of c2,
+set null values to entries of c1</t>
+  </si>
+  <si>
+    <t>on deleting entries of c2,
+set null values to entries of c1</t>
+  </si>
+  <si>
+    <t>combined matched entries of tables t1 and matched entries of table t2</t>
+  </si>
+  <si>
+    <t>distinct combined entries of table t1 and table t2</t>
   </si>
 </sst>
 </file>
@@ -862,9 +941,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -878,255 +957,263 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>21</v>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="36" x14ac:dyDescent="0.35">
-      <c r="A25" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>62</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="36" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="2" t="s">
-        <v>59</v>
+    </row>
+    <row r="27" spans="1:3" ht="36" x14ac:dyDescent="0.35">
+      <c r="A27" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="4"/>
-      <c r="C29" s="3"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="A29" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="4"/>
+      <c r="C30" s="3"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="1" t="s">
         <v>141</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1136,9 +1223,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3236BF0E-A801-49F7-9449-B8B0305CA98D}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -1152,10 +1239,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="36" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>53</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -1163,7 +1250,7 @@
         <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -1171,111 +1258,135 @@
         <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>146</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="4"/>
-    </row>
-    <row r="7" spans="1:3" ht="36" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="36" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="8" spans="1:3" ht="36" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="4"/>
+      <c r="A9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="4"/>
-    </row>
-    <row r="11" spans="1:3" ht="54" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>80</v>
+      <c r="A10" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="5"/>
-      <c r="C12" s="3"/>
+      <c r="A12" s="4"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="4"/>
     </row>
-    <row r="14" spans="1:3" ht="36" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
-        <v>140</v>
+    <row r="14" spans="1:3" ht="54" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>134</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="3"/>
+      <c r="A15" s="5"/>
       <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="3"/>
-      <c r="C16" s="3"/>
+      <c r="A16" s="4"/>
     </row>
     <row r="17" spans="1:3" ht="36" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="3"/>
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="3"/>
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="1:3" ht="36" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="54" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="54" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="36" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="54" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:3" ht="36" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="54" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="54" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>91</v>
+    </row>
+    <row r="26" spans="1:3" ht="54" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1285,7 +1396,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE3ACDA6-6528-4A20-96E8-DDF5997EEEDC}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
@@ -1301,34 +1412,34 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="36" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -1336,95 +1447,135 @@
         <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="36" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>138</v>
+      <c r="A10" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
-        <v>94</v>
+      <c r="A11" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>95</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>87</v>
+      <c r="A13" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
+      <c r="C17" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="54" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="54" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>135</v>
+    </row>
+    <row r="21" spans="1:3" ht="54" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="54" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="54" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -1434,7 +1585,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{031C7727-D680-484C-AD95-C26C0B485266}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
@@ -1450,154 +1601,186 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="54" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="36" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="36" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="36" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="54" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="54" x14ac:dyDescent="0.35">
+      <c r="A15" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="36" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
-        <v>106</v>
+        <v>164</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C17" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="36" x14ac:dyDescent="0.35">
+      <c r="A17" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="36" x14ac:dyDescent="0.35">
+      <c r="A18" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C18" s="1" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>117</v>
+      <c r="C21" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>133</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/Database/SQL.xlsx
+++ b/Database/SQL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IIITL\Code Files\Data Science\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A76DE27-76B2-439F-954E-1E85D1CD3D1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED413CC-A8C5-4AB8-9C01-61F5D98547EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Basics 1" sheetId="1" r:id="rId1"/>
@@ -276,10 +276,6 @@
 else v3 end as c from t</t>
   </si>
   <si>
-    <t>inserts value v according to condition x
-in new column c of table t</t>
-  </si>
-  <si>
     <t>create database d</t>
   </si>
   <si>
@@ -428,9 +424,6 @@
     <t>auto_increment=v</t>
   </si>
   <si>
-    <t>sets starting value to v</t>
-  </si>
-  <si>
     <t>add non-null values to column c</t>
   </si>
   <si>
@@ -598,6 +591,13 @@
   </si>
   <si>
     <t>distinct combined entries of table t1 and table t2</t>
+  </si>
+  <si>
+    <t>set starting value to v</t>
+  </si>
+  <si>
+    <t>insert value v according to condition x
+in new column c of table t</t>
   </si>
 </sst>
 </file>
@@ -943,7 +943,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -990,10 +990,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
@@ -1078,7 +1078,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>63</v>
@@ -1162,7 +1162,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>14</v>
@@ -1170,7 +1170,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>2</v>
@@ -1178,7 +1178,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>3</v>
@@ -1186,7 +1186,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>4</v>
@@ -1194,7 +1194,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>5</v>
@@ -1225,7 +1225,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3236BF0E-A801-49F7-9449-B8B0305CA98D}">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -1242,7 +1242,7 @@
         <v>65</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -1263,7 +1263,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>50</v>
@@ -1271,10 +1271,10 @@
     </row>
     <row r="5" spans="1:3" ht="36" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -1285,7 +1285,7 @@
         <v>74</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -1293,23 +1293,23 @@
         <v>52</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -1323,7 +1323,7 @@
         <v>75</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>76</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -1335,10 +1335,10 @@
     </row>
     <row r="17" spans="1:3" ht="36" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -1383,10 +1383,10 @@
     </row>
     <row r="26" spans="1:3" ht="54" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1412,34 +1412,34 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="36" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -1460,66 +1460,66 @@
     </row>
     <row r="9" spans="1:3" ht="36" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -1527,7 +1527,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -1540,42 +1540,42 @@
     </row>
     <row r="21" spans="1:3" ht="54" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="54" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>161</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="54" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>143</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1601,186 +1601,186 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="54" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>123</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="36" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="36" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="36" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="54" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="54" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="36" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="36" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="36" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/Database/SQL.xlsx
+++ b/Database/SQL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IIITL\Code Files\Data Science\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED413CC-A8C5-4AB8-9C01-61F5D98547EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C75B522-0197-4368-8CDC-38FC0499076D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="177">
   <si>
     <t>show databases</t>
   </si>
@@ -598,6 +598,15 @@
   <si>
     <t>insert value v according to condition x
 in new column c of table t</t>
+  </si>
+  <si>
+    <t>except</t>
+  </si>
+  <si>
+    <t>escape character</t>
+  </si>
+  <si>
+    <t>like 'p' escape '\'</t>
   </si>
 </sst>
 </file>
@@ -941,7 +950,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
@@ -1124,95 +1133,103 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="36" x14ac:dyDescent="0.35">
-      <c r="A26" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>58</v>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="36" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="36" x14ac:dyDescent="0.35">
+      <c r="A28" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C28" s="3" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="4"/>
-      <c r="C30" s="3"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
+      <c r="A30" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="4"/>
+      <c r="C31" s="3"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1223,7 +1240,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3236BF0E-A801-49F7-9449-B8B0305CA98D}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
@@ -1313,79 +1330,87 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="4"/>
+      <c r="A12" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="4"/>
-    </row>
-    <row r="14" spans="1:3" ht="54" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="4"/>
+    </row>
+    <row r="15" spans="1:3" ht="54" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="5"/>
-      <c r="C15" s="3"/>
-    </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="4"/>
-    </row>
-    <row r="17" spans="1:3" ht="36" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
+      <c r="A16" s="5"/>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="4"/>
+    </row>
+    <row r="18" spans="1:3" ht="36" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="3"/>
-      <c r="C18" s="3"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
       <c r="C19" s="3"/>
     </row>
-    <row r="20" spans="1:3" ht="36" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="3"/>
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="1:3" ht="36" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="54" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
+    <row r="22" spans="1:3" ht="54" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C22" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="36" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
+    <row r="23" spans="1:3" ht="36" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="54" x14ac:dyDescent="0.35">
-      <c r="A25" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="54" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="54" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C27" s="3" t="s">
         <v>86</v>
       </c>
     </row>
